--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slit3-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slit3-Robo1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.044914666666666</v>
+        <v>2.232451333333333</v>
       </c>
       <c r="H2">
-        <v>3.134744</v>
+        <v>6.697354</v>
       </c>
       <c r="I2">
-        <v>0.006668841574421892</v>
+        <v>0.01414074962829973</v>
       </c>
       <c r="J2">
-        <v>0.006668841574421893</v>
+        <v>0.01414074962829973</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1757713333333333</v>
+        <v>0.040495</v>
       </c>
       <c r="N2">
-        <v>0.5273139999999999</v>
+        <v>0.121485</v>
       </c>
       <c r="O2">
-        <v>0.00944426430829845</v>
+        <v>0.002191743187342868</v>
       </c>
       <c r="P2">
-        <v>0.009444264308298452</v>
+        <v>0.002191743187342869</v>
       </c>
       <c r="Q2">
-        <v>0.1836660441795555</v>
+        <v>0.09040311674333332</v>
       </c>
       <c r="R2">
-        <v>1.652994397616</v>
+        <v>0.81362805069</v>
       </c>
       <c r="S2">
-        <v>6.298230245900951E-05</v>
+        <v>3.099289166174713E-05</v>
       </c>
       <c r="T2">
-        <v>6.298230245900954E-05</v>
+        <v>3.099289166174714E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.044914666666666</v>
+        <v>2.232451333333333</v>
       </c>
       <c r="H3">
-        <v>3.134744</v>
+        <v>6.697354</v>
       </c>
       <c r="I3">
-        <v>0.006668841574421892</v>
+        <v>0.01414074962829973</v>
       </c>
       <c r="J3">
-        <v>0.006668841574421893</v>
+        <v>0.01414074962829973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>50.949371</v>
       </c>
       <c r="O3">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="P3">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="Q3">
-        <v>17.74591500511378</v>
+        <v>37.91399707381489</v>
       </c>
       <c r="R3">
-        <v>159.713235046024</v>
+        <v>341.225973664334</v>
       </c>
       <c r="S3">
-        <v>0.006085384978245009</v>
+        <v>0.01299805190465622</v>
       </c>
       <c r="T3">
-        <v>0.00608538497824501</v>
+        <v>0.01299805190465622</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.044914666666666</v>
+        <v>2.232451333333333</v>
       </c>
       <c r="H4">
-        <v>3.134744</v>
+        <v>6.697354</v>
       </c>
       <c r="I4">
-        <v>0.006668841574421892</v>
+        <v>0.01414074962829973</v>
       </c>
       <c r="J4">
-        <v>0.006668841574421893</v>
+        <v>0.01414074962829973</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.452542333333334</v>
+        <v>1.452542333333333</v>
       </c>
       <c r="N4">
-        <v>4.357627000000001</v>
+        <v>4.357627</v>
       </c>
       <c r="O4">
-        <v>0.07804568273358505</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="P4">
-        <v>0.07804568273358506</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="Q4">
-        <v>1.517782788054222</v>
+        <v>3.242730068773111</v>
       </c>
       <c r="R4">
-        <v>13.660045092488</v>
+        <v>29.184570618958</v>
       </c>
       <c r="S4">
-        <v>0.0005204742937178728</v>
+        <v>0.001111704831981761</v>
       </c>
       <c r="T4">
-        <v>0.0005204742937178729</v>
+        <v>0.001111704831981761</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>383.601051</v>
       </c>
       <c r="I5">
-        <v>0.8160713081836134</v>
+        <v>0.8099327614075106</v>
       </c>
       <c r="J5">
-        <v>0.8160713081836134</v>
+        <v>0.8099327614075106</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1757713333333333</v>
+        <v>0.040495</v>
       </c>
       <c r="N5">
-        <v>0.5273139999999999</v>
+        <v>0.121485</v>
       </c>
       <c r="O5">
-        <v>0.00944426430829845</v>
+        <v>0.002191743187342868</v>
       </c>
       <c r="P5">
-        <v>0.009444264308298452</v>
+        <v>0.002191743187342869</v>
       </c>
       <c r="Q5">
-        <v>22.47535606744599</v>
+        <v>5.177974853414999</v>
       </c>
       <c r="R5">
-        <v>202.278204607014</v>
+        <v>46.60177368073499</v>
       </c>
       <c r="S5">
-        <v>0.007707193128904925</v>
+        <v>0.001775164612020708</v>
       </c>
       <c r="T5">
-        <v>0.007707193128904926</v>
+        <v>0.001775164612020708</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>383.601051</v>
       </c>
       <c r="I6">
-        <v>0.8160713081836134</v>
+        <v>0.8099327614075106</v>
       </c>
       <c r="J6">
-        <v>0.8160713081836134</v>
+        <v>0.8099327614075106</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>50.949371</v>
       </c>
       <c r="O6">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="P6">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="Q6">
         <v>2171.581362598769</v>
@@ -818,10 +818,10 @@
         <v>19544.23226338892</v>
       </c>
       <c r="S6">
-        <v>0.7446732726482285</v>
+        <v>0.7444830259201887</v>
       </c>
       <c r="T6">
-        <v>0.7446732726482285</v>
+        <v>0.7444830259201887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>383.601051</v>
       </c>
       <c r="I7">
-        <v>0.8160713081836134</v>
+        <v>0.8099327614075106</v>
       </c>
       <c r="J7">
-        <v>0.8160713081836134</v>
+        <v>0.8099327614075106</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.452542333333334</v>
+        <v>1.452542333333333</v>
       </c>
       <c r="N7">
-        <v>4.357627000000001</v>
+        <v>4.357627</v>
       </c>
       <c r="O7">
-        <v>0.07804568273358505</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="P7">
-        <v>0.07804568273358506</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="Q7">
         <v>185.732255229553</v>
@@ -880,10 +880,10 @@
         <v>1671.590297065977</v>
       </c>
       <c r="S7">
-        <v>0.06369084240648</v>
+        <v>0.06367457087530116</v>
       </c>
       <c r="T7">
-        <v>0.06369084240648001</v>
+        <v>0.06367457087530116</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.77415166666667</v>
+        <v>27.77415166666666</v>
       </c>
       <c r="H8">
-        <v>83.32245500000001</v>
+        <v>83.32245499999999</v>
       </c>
       <c r="I8">
-        <v>0.1772598502419647</v>
+        <v>0.1759264889641896</v>
       </c>
       <c r="J8">
-        <v>0.1772598502419647</v>
+        <v>0.1759264889641896</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1757713333333333</v>
+        <v>0.040495</v>
       </c>
       <c r="N8">
-        <v>0.5273139999999999</v>
+        <v>0.121485</v>
       </c>
       <c r="O8">
-        <v>0.00944426430829845</v>
+        <v>0.002191743187342868</v>
       </c>
       <c r="P8">
-        <v>0.009444264308298452</v>
+        <v>0.002191743187342869</v>
       </c>
       <c r="Q8">
-        <v>4.881899670652222</v>
+        <v>1.124714271741666</v>
       </c>
       <c r="R8">
-        <v>43.93709703587</v>
+        <v>10.122428445675</v>
       </c>
       <c r="S8">
-        <v>0.001674088876934515</v>
+        <v>0.0003855856836604129</v>
       </c>
       <c r="T8">
-        <v>0.001674088876934516</v>
+        <v>0.0003855856836604129</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.77415166666667</v>
+        <v>27.77415166666666</v>
       </c>
       <c r="H9">
-        <v>83.32245500000001</v>
+        <v>83.32245499999999</v>
       </c>
       <c r="I9">
-        <v>0.1772598502419647</v>
+        <v>0.1759264889641896</v>
       </c>
       <c r="J9">
-        <v>0.1772598502419647</v>
+        <v>0.1759264889641896</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>50.949371</v>
       </c>
       <c r="O9">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="P9">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="Q9">
-        <v>471.6918524917562</v>
+        <v>471.6918524917561</v>
       </c>
       <c r="R9">
-        <v>4245.226672425805</v>
+        <v>4245.226672425804</v>
       </c>
       <c r="S9">
-        <v>0.161751395331643</v>
+        <v>0.161710071606396</v>
       </c>
       <c r="T9">
-        <v>0.161751395331643</v>
+        <v>0.161710071606396</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.77415166666667</v>
+        <v>27.77415166666666</v>
       </c>
       <c r="H10">
-        <v>83.32245500000001</v>
+        <v>83.32245499999999</v>
       </c>
       <c r="I10">
-        <v>0.1772598502419647</v>
+        <v>0.1759264889641896</v>
       </c>
       <c r="J10">
-        <v>0.1772598502419647</v>
+        <v>0.1759264889641896</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.452542333333334</v>
+        <v>1.452542333333333</v>
       </c>
       <c r="N10">
-        <v>4.357627000000001</v>
+        <v>4.357627</v>
       </c>
       <c r="O10">
-        <v>0.07804568273358505</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="P10">
-        <v>0.07804568273358506</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="Q10">
-        <v>40.3431310682539</v>
+        <v>40.34313106825389</v>
       </c>
       <c r="R10">
-        <v>363.0881796142851</v>
+        <v>363.088179614285</v>
       </c>
       <c r="S10">
-        <v>0.01383436603338718</v>
+        <v>0.01383083167413322</v>
       </c>
       <c r="T10">
-        <v>0.01383436603338718</v>
+        <v>0.01383083167413322</v>
       </c>
     </row>
   </sheetData>
